--- a/OneDay-KimbabHeaven/oneDay-KimbabHeaven - 테이블명세.xlsx
+++ b/OneDay-KimbabHeaven/oneDay-KimbabHeaven - 테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Nodejs\OneDay-KimbabHeaven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F462A4-C2B9-4621-A3F8-52A13606EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082620C-5905-4345-990F-0746A9642FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="930" windowWidth="19875" windowHeight="12285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보테이블" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:카드, 2:현금, 3:계좌이체, 0:기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주문번호를 저장한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -318,6 +314,14 @@
   </si>
   <si>
     <t>fk_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:카드, 2:현금, 3:계좌이체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2918,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>39</v>
@@ -2928,7 +2932,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>64</v>
@@ -3226,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65763CC9-7A66-4B8F-B924-0ED8C3FE7303}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3931,7 +3935,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -4016,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>37</v>
@@ -4026,7 +4030,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>42</v>
@@ -4060,7 +4064,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
